--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -25057,10 +25057,10 @@
       </c>
       <c r="F197" s="2"/>
       <c r="G197" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H197" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I197" t="s" s="2">
         <v>76</v>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19542" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19540" uniqueCount="1055">
   <si>
     <t>Property</t>
   </si>
@@ -23585,7 +23585,7 @@
         <v>77</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>76</v>
@@ -23898,7 +23898,7 @@
         <v>77</v>
       </c>
       <c r="H186" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I186" t="s" s="2">
         <v>76</v>
@@ -24309,14 +24309,14 @@
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I190" t="s" s="2">
         <v>76</v>
@@ -24331,17 +24331,13 @@
         <v>103</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>185</v>
+        <v>778</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="P190" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
       <c r="Q190" t="s" s="2">
         <v>76</v>
       </c>
@@ -24637,7 +24633,7 @@
         <v>77</v>
       </c>
       <c r="H193" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I193" t="s" s="2">
         <v>76</v>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19540" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19540" uniqueCount="1058">
   <si>
     <t>Property</t>
   </si>
@@ -2428,6 +2428,9 @@
     <t>2023-02-25</t>
   </si>
   <si>
+    <t>The purpose of this profile is to enforce metadata conventions for HL7 Australia FHIR profiles, as documented in the [HL7AU GitHub wiki](https://github.com/hl7au/au-fhir-base/wiki/HL7-AU-Conventions:-profile-and-extension-metadata)</t>
+  </si>
+  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -2465,12 +2468,18 @@
 hl7au-sdf-base-02:The url starts with 'http://hl7.org.au/fhir/StructureDefinition/' {startsWith('http://hl7.org.au/fhir/StructureDefinition/')}</t>
   </si>
   <si>
+    <t>Generated from ImplementationGuide value</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 hl7au-sdf-base-07:The name value contains no spaces {contains(' ').not()}</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 hl7au-sdf-base-08:The title value must contain one or more non-leading or non-trailing single spaces {matches('^([a-zA-Z0-9]+ )*[a-zA-Z0-9]+$')}</t>
+  </si>
+  <si>
+    <t>Generated from ImplementationGuide.date</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -3854,7 +3863,7 @@
         <v>23</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>604</v>
+        <v>778</v>
       </c>
     </row>
     <row r="57">
@@ -3932,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
     </row>
     <row r="67">
@@ -3940,7 +3949,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68">
@@ -3956,7 +3965,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70">
@@ -3964,7 +3973,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71">
@@ -4018,7 +4027,7 @@
         <v>23</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78">
@@ -4056,7 +4065,7 @@
         <v>32</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="83">
@@ -4064,7 +4073,7 @@
         <v>34</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="84">
@@ -4096,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="88">
@@ -4104,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>1037</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="89">
@@ -4120,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>1038</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="91">
@@ -4128,7 +4137,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="92">
@@ -4182,7 +4191,7 @@
         <v>23</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>1040</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="99">
@@ -4260,7 +4269,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="109">
@@ -4268,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>1047</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="110">
@@ -4284,7 +4293,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="112">
@@ -4292,7 +4301,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>1049</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="113">
@@ -4346,7 +4355,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>1050</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="120">
@@ -4384,7 +4393,7 @@
         <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="125">
@@ -4392,7 +4401,7 @@
         <v>34</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="126">
@@ -24123,10 +24132,10 @@
         <v>103</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -24195,13 +24204,13 @@
         <v>773</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>616</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E189" t="s" s="2">
         <v>76</v>
@@ -24223,16 +24232,16 @@
         <v>76</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
@@ -24291,10 +24300,10 @@
         <v>78</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="190">
@@ -24331,10 +24340,10 @@
         <v>103</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -24504,7 +24513,7 @@
         <v>76</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="192">
@@ -24648,7 +24657,7 @@
         <v>97</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>628</v>
+        <v>790</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>629</v>
@@ -24823,7 +24832,7 @@
         <v>257</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="195">
@@ -24928,7 +24937,7 @@
         <v>76</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="196">
@@ -25177,7 +25186,7 @@
         <v>276</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>277</v>
+        <v>793</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>646</v>
@@ -25352,7 +25361,7 @@
         <v>76</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="200">
@@ -25465,10 +25474,10 @@
         <v>773</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25568,10 +25577,10 @@
         <v>773</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25673,10 +25682,10 @@
         <v>773</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25778,10 +25787,10 @@
         <v>773</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25881,10 +25890,10 @@
         <v>773</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25984,10 +25993,10 @@
         <v>773</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26089,10 +26098,10 @@
         <v>773</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26192,10 +26201,10 @@
         <v>773</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26299,10 +26308,10 @@
         <v>773</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26406,10 +26415,10 @@
         <v>773</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26511,10 +26520,10 @@
         <v>773</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27133,7 +27142,7 @@
         <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="217">
@@ -27365,7 +27374,7 @@
         <v>77</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>76</v>
@@ -30476,13 +30485,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -30508,10 +30517,10 @@
         <v>79</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
@@ -30562,7 +30571,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -30579,13 +30588,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30684,13 +30693,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30787,13 +30796,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30890,13 +30899,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -30995,13 +31004,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31100,13 +31109,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31205,13 +31214,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31310,13 +31319,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31356,7 +31365,7 @@
       </c>
       <c r="R257" s="2"/>
       <c r="S257" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="T257" t="s" s="2">
         <v>76</v>
@@ -31415,13 +31424,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31520,13 +31529,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31625,13 +31634,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31730,13 +31739,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -31835,13 +31844,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -31940,13 +31949,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32045,13 +32054,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32150,13 +32159,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32257,13 +32266,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32289,16 +32298,16 @@
         <v>124</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>192</v>
       </c>
       <c r="P266" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>76</v>
@@ -32347,7 +32356,7 @@
         <v>76</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
@@ -32359,18 +32368,18 @@
         <v>76</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32396,13 +32405,13 @@
         <v>196</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="N267" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="O267" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="P267" t="s" s="2">
         <v>200</v>
@@ -32454,7 +32463,7 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
@@ -32471,13 +32480,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32574,13 +32583,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32679,13 +32688,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32786,13 +32795,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -32893,13 +32902,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33000,13 +33009,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33100,18 +33109,18 @@
         <v>76</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33208,13 +33217,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33313,13 +33322,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33345,13 +33354,13 @@
         <v>97</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="N276" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="O276" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
@@ -33401,7 +33410,7 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
@@ -33413,18 +33422,18 @@
         <v>76</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33450,13 +33459,13 @@
         <v>97</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="N277" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="O277" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="P277" t="s" s="2">
         <v>256</v>
@@ -33508,7 +33517,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -33525,13 +33534,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -33557,10 +33566,10 @@
         <v>97</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>261</v>
@@ -33613,7 +33622,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -33630,13 +33639,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -33665,10 +33674,10 @@
         <v>263</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="O279" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
@@ -33718,7 +33727,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>83</v>
@@ -33735,13 +33744,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -33770,13 +33779,13 @@
         <v>270</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="P280" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="Q280" t="s" s="2">
         <v>76</v>
@@ -33825,7 +33834,7 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
@@ -33842,13 +33851,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -33877,10 +33886,10 @@
         <v>277</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
@@ -33930,7 +33939,7 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
@@ -33947,13 +33956,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -33982,13 +33991,13 @@
         <v>281</v>
       </c>
       <c r="N282" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="O282" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="P282" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>76</v>
@@ -34037,7 +34046,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -34049,18 +34058,18 @@
         <v>76</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34142,7 +34151,7 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
@@ -34159,13 +34168,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34262,13 +34271,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34367,13 +34376,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34472,13 +34481,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -34575,13 +34584,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -34678,13 +34687,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -34783,13 +34792,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -34886,13 +34895,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -34993,13 +35002,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35100,13 +35109,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35205,13 +35214,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35308,13 +35317,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35340,13 +35349,13 @@
         <v>341</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="O295" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -35396,7 +35405,7 @@
         <v>76</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
@@ -35413,13 +35422,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -35448,7 +35457,7 @@
         <v>347</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>349</v>
@@ -35503,7 +35512,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -35520,13 +35529,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -35552,13 +35561,13 @@
         <v>213</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="N297" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="O297" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
@@ -35608,7 +35617,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -35625,13 +35634,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -35728,13 +35737,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -35833,13 +35842,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -35940,13 +35949,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36043,13 +36052,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36148,13 +36157,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36255,13 +36264,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36360,13 +36369,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -36465,13 +36474,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -36570,13 +36579,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36677,13 +36686,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -36784,13 +36793,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -36816,13 +36825,13 @@
         <v>341</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -36872,7 +36881,7 @@
         <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
@@ -36889,13 +36898,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -36924,13 +36933,13 @@
         <v>412</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="O310" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="P310" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>76</v>
@@ -36979,7 +36988,7 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>77</v>
@@ -36991,18 +37000,18 @@
         <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37028,13 +37037,13 @@
         <v>269</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="O311" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -37084,7 +37093,7 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
@@ -37101,13 +37110,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37133,13 +37142,13 @@
         <v>512</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="O312" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
@@ -37189,7 +37198,7 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
@@ -37206,13 +37215,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37238,13 +37247,13 @@
         <v>159</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
@@ -37273,10 +37282,10 @@
         <v>208</v>
       </c>
       <c r="Z313" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="AA313" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>76</v>
@@ -37294,7 +37303,7 @@
         <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
@@ -37311,17 +37320,17 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
@@ -37343,13 +37352,13 @@
         <v>269</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -37399,7 +37408,7 @@
         <v>76</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>77</v>
@@ -37416,13 +37425,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37448,13 +37457,13 @@
         <v>269</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="O315" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
@@ -37504,7 +37513,7 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>77</v>
@@ -37521,13 +37530,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37553,10 +37562,10 @@
         <v>159</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -37586,28 +37595,28 @@
         <v>208</v>
       </c>
       <c r="Z316" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF316" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG316" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="AA316" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="AB316" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC316" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD316" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE316" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF316" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG316" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>83</v>
@@ -37624,13 +37633,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -37653,16 +37662,16 @@
         <v>84</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="P317" s="2"/>
       <c r="Q317" t="s" s="2">
@@ -37712,7 +37721,7 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
@@ -37729,13 +37738,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -37758,16 +37767,16 @@
         <v>84</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O318" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
@@ -37817,7 +37826,7 @@
         <v>76</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
@@ -37834,13 +37843,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -37866,13 +37875,13 @@
         <v>419</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="O319" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
@@ -37922,7 +37931,7 @@
         <v>76</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>77</v>
@@ -37939,13 +37948,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38042,13 +38051,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38147,13 +38156,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38254,13 +38263,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38286,10 +38295,10 @@
         <v>159</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
@@ -38340,7 +38349,7 @@
         <v>76</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>83</v>
@@ -38357,13 +38366,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38389,10 +38398,10 @@
         <v>97</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
@@ -38443,7 +38452,7 @@
         <v>76</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>77</v>
@@ -38460,13 +38469,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38495,7 +38504,7 @@
         <v>502</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
@@ -38546,7 +38555,7 @@
         <v>76</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>83</v>
@@ -38563,13 +38572,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38595,10 +38604,10 @@
         <v>97</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
@@ -38649,7 +38658,7 @@
         <v>76</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>83</v>
@@ -38666,13 +38675,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -38698,10 +38707,10 @@
         <v>419</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -38752,7 +38761,7 @@
         <v>76</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>77</v>
@@ -38769,13 +38778,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -38872,13 +38881,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -38977,13 +38986,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39084,13 +39093,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39116,10 +39125,10 @@
         <v>159</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
@@ -39170,7 +39179,7 @@
         <v>76</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>83</v>
@@ -39187,13 +39196,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39219,10 +39228,10 @@
         <v>124</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
@@ -39273,7 +39282,7 @@
         <v>76</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>77</v>
@@ -39290,13 +39299,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39322,10 +39331,10 @@
         <v>97</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
@@ -39376,7 +39385,7 @@
         <v>76</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>77</v>
@@ -39393,13 +39402,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39425,10 +39434,10 @@
         <v>159</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
@@ -39458,28 +39467,28 @@
         <v>208</v>
       </c>
       <c r="Z334" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="AA334" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="AB334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF334" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG334" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="AA334" t="s" s="2">
-        <v>991</v>
-      </c>
-      <c r="AB334" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC334" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD334" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE334" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF334" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG334" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>83</v>
@@ -39496,13 +39505,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39528,13 +39537,13 @@
         <v>419</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O335" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="P335" s="2"/>
       <c r="Q335" t="s" s="2">
@@ -39584,7 +39593,7 @@
         <v>76</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>77</v>
@@ -39601,13 +39610,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39704,13 +39713,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -39809,13 +39818,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -39916,13 +39925,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -39948,10 +39957,10 @@
         <v>159</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
@@ -40002,7 +40011,7 @@
         <v>76</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>83</v>
@@ -40019,13 +40028,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40051,10 +40060,10 @@
         <v>97</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40105,7 +40114,7 @@
         <v>76</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>77</v>
@@ -40122,13 +40131,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40154,10 +40163,10 @@
         <v>97</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
@@ -40208,7 +40217,7 @@
         <v>76</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>77</v>
@@ -40225,13 +40234,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40257,16 +40266,16 @@
         <v>419</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>474</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>76</v>
@@ -40315,7 +40324,7 @@
         <v>76</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>77</v>
@@ -40332,13 +40341,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40435,13 +40444,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40540,13 +40549,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40647,13 +40656,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -40735,7 +40744,7 @@
         <v>76</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>77</v>
@@ -40752,13 +40761,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -40784,10 +40793,10 @@
         <v>137</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>485</v>
@@ -40840,7 +40849,7 @@
         <v>76</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>77</v>
@@ -40857,13 +40866,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -40943,7 +40952,7 @@
         <v>76</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>83</v>
@@ -40960,13 +40969,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -40992,10 +41001,10 @@
         <v>419</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41046,7 +41055,7 @@
         <v>76</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>77</v>
@@ -41063,13 +41072,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41166,13 +41175,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41271,13 +41280,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41378,13 +41387,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41410,10 +41419,10 @@
         <v>159</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
@@ -41464,7 +41473,7 @@
         <v>76</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>83</v>
@@ -41481,13 +41490,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41510,13 +41519,13 @@
         <v>76</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
@@ -41567,7 +41576,7 @@
         <v>76</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>83</v>
@@ -41584,13 +41593,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41616,10 +41625,10 @@
         <v>79</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -41670,7 +41679,7 @@
         <v>76</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>77</v>
@@ -41687,7 +41696,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>33</v>
@@ -41790,7 +41799,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>82</v>
@@ -41890,12 +41899,12 @@
         <v>76</v>
       </c>
       <c r="AK357" t="s" s="2">
-        <v>1041</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>90</v>
@@ -41998,7 +42007,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>96</v>
@@ -42101,7 +42110,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>101</v>
@@ -42206,7 +42215,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>112</v>
@@ -42311,7 +42320,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>117</v>
@@ -42416,7 +42425,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>123</v>
@@ -42521,7 +42530,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>129</v>
@@ -42626,7 +42635,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>136</v>
@@ -42731,7 +42740,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>145</v>
@@ -42836,7 +42845,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>153</v>
@@ -42941,7 +42950,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>158</v>
@@ -43046,7 +43055,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>167</v>
@@ -43151,7 +43160,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>174</v>
@@ -43256,7 +43265,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>181</v>
@@ -43361,7 +43370,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -43468,7 +43477,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>189</v>
@@ -43570,12 +43579,12 @@
         <v>76</v>
       </c>
       <c r="AK373" t="s" s="2">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>195</v>
@@ -43682,7 +43691,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>201</v>
@@ -43785,7 +43794,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>202</v>
@@ -43890,7 +43899,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>203</v>
@@ -43997,7 +44006,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>212</v>
@@ -44104,7 +44113,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>221</v>
@@ -44211,7 +44220,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>229</v>
@@ -44316,7 +44325,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>236</v>
@@ -44419,7 +44428,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>241</v>
@@ -44524,7 +44533,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>247</v>
@@ -44629,7 +44638,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>252</v>
@@ -44731,12 +44740,12 @@
         <v>257</v>
       </c>
       <c r="AK384" t="s" s="2">
-        <v>1043</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>258</v>
@@ -44836,12 +44845,12 @@
         <v>76</v>
       </c>
       <c r="AK385" t="s" s="2">
-        <v>1044</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>262</v>
@@ -44946,7 +44955,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>268</v>
@@ -45053,7 +45062,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>274</v>
@@ -45158,7 +45167,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>280</v>
@@ -45265,7 +45274,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>286</v>
@@ -45370,7 +45379,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>291</v>
@@ -45473,7 +45482,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>292</v>
@@ -45578,7 +45587,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>293</v>
@@ -45683,7 +45692,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>298</v>
@@ -45786,7 +45795,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>303</v>
@@ -45889,7 +45898,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>304</v>
@@ -45994,7 +46003,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>305</v>
@@ -46097,7 +46106,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>313</v>
@@ -46204,7 +46213,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>320</v>
@@ -46311,7 +46320,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>329</v>
@@ -46416,7 +46425,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>335</v>
@@ -46519,7 +46528,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>339</v>
@@ -46619,12 +46628,12 @@
         <v>76</v>
       </c>
       <c r="AK402" t="s" s="2">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>345</v>
@@ -46731,7 +46740,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>351</v>
@@ -46836,7 +46845,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>357</v>
@@ -46939,7 +46948,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>358</v>
@@ -47044,7 +47053,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>359</v>
@@ -47151,7 +47160,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>365</v>
@@ -47254,7 +47263,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>366</v>
@@ -47359,7 +47368,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>367</v>
@@ -47466,7 +47475,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>374</v>
@@ -47571,7 +47580,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>379</v>
@@ -47676,7 +47685,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>385</v>
@@ -47781,7 +47790,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>390</v>
@@ -47888,7 +47897,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>396</v>
@@ -47995,7 +48004,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>402</v>
@@ -48100,7 +48109,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>406</v>
@@ -48205,7 +48214,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>410</v>
@@ -48312,7 +48321,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>417</v>
@@ -48415,7 +48424,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>422</v>
@@ -48518,7 +48527,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>423</v>
@@ -48623,7 +48632,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>424</v>
@@ -48730,7 +48739,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>429</v>
@@ -48835,7 +48844,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>434</v>
@@ -48940,7 +48949,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>438</v>
@@ -49045,7 +49054,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>443</v>
@@ -49148,7 +49157,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>444</v>
@@ -49253,7 +49262,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>445</v>
@@ -49360,7 +49369,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>446</v>
@@ -49465,7 +49474,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>451</v>
@@ -49570,7 +49579,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>455</v>
@@ -49675,7 +49684,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>460</v>
@@ -49778,7 +49787,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>461</v>
@@ -49883,7 +49892,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>462</v>
@@ -49990,7 +49999,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>463</v>
@@ -50095,7 +50104,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>467</v>
@@ -50200,7 +50209,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>471</v>
@@ -50305,7 +50314,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>475</v>
@@ -50408,7 +50417,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>476</v>
@@ -50513,7 +50522,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>477</v>
@@ -50620,7 +50629,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>478</v>
@@ -50725,7 +50734,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>482</v>
@@ -50830,7 +50839,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>488</v>
@@ -50933,7 +50942,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>491</v>
@@ -51038,7 +51047,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>495</v>
@@ -51141,7 +51150,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>496</v>
@@ -51246,7 +51255,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>497</v>
@@ -51353,7 +51362,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>498</v>
@@ -51456,7 +51465,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>501</v>
@@ -51561,7 +51570,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>507</v>
@@ -51666,7 +51675,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>511</v>
@@ -51771,7 +51780,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>517</v>
@@ -51876,7 +51885,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>522</v>
@@ -51981,7 +51990,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>526</v>
@@ -52084,7 +52093,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>527</v>
@@ -52189,7 +52198,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>528</v>
@@ -52296,7 +52305,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>529</v>
@@ -52401,7 +52410,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>533</v>
@@ -52506,7 +52515,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>537</v>
@@ -52611,7 +52620,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>542</v>
@@ -52718,7 +52727,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>547</v>
@@ -52823,7 +52832,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>551</v>
@@ -52926,7 +52935,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>552</v>
@@ -53031,7 +53040,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>553</v>
@@ -53138,7 +53147,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>554</v>
@@ -53243,7 +53252,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>558</v>
@@ -53346,7 +53355,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>562</v>
@@ -53449,7 +53458,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>566</v>
@@ -53552,7 +53561,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>567</v>
@@ -53657,7 +53666,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>568</v>
@@ -53764,7 +53773,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>569</v>
@@ -53867,7 +53876,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>572</v>
@@ -53974,7 +53983,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>577</v>
@@ -54079,7 +54088,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>581</v>
@@ -54184,7 +54193,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>585</v>
@@ -54287,7 +54296,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>589</v>
@@ -54390,7 +54399,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>592</v>
@@ -54495,7 +54504,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>596</v>
@@ -54600,13 +54609,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -54632,10 +54641,10 @@
         <v>79</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
@@ -54686,7 +54695,7 @@
         <v>76</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>77</v>
@@ -54703,13 +54712,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -54803,18 +54812,18 @@
         <v>76</v>
       </c>
       <c r="AK480" t="s" s="2">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -54911,13 +54920,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -55014,13 +55023,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55119,13 +55128,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55224,13 +55233,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -55329,13 +55338,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -55434,13 +55443,13 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -55480,7 +55489,7 @@
       </c>
       <c r="R487" s="2"/>
       <c r="S487" t="s" s="2">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="T487" t="s" s="2">
         <v>76</v>
@@ -55539,13 +55548,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -55644,13 +55653,13 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -55749,13 +55758,13 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -55854,13 +55863,13 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -55959,13 +55968,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -56064,13 +56073,13 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -56169,13 +56178,13 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -56274,13 +56283,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -56381,13 +56390,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -56413,16 +56422,16 @@
         <v>124</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="O496" t="s" s="2">
         <v>192</v>
       </c>
       <c r="P496" t="s" s="2">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="Q496" t="s" s="2">
         <v>76</v>
@@ -56471,7 +56480,7 @@
         <v>76</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>77</v>
@@ -56483,18 +56492,18 @@
         <v>76</v>
       </c>
       <c r="AK496" t="s" s="2">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -56520,13 +56529,13 @@
         <v>196</v>
       </c>
       <c r="M497" t="s" s="2">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="N497" t="s" s="2">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="O497" t="s" s="2">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="P497" t="s" s="2">
         <v>200</v>
@@ -56578,7 +56587,7 @@
         <v>76</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>77</v>
@@ -56595,13 +56604,13 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -56698,13 +56707,13 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -56803,13 +56812,13 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -56910,13 +56919,13 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -57017,13 +57026,13 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -57124,13 +57133,13 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -57224,18 +57233,18 @@
         <v>76</v>
       </c>
       <c r="AK503" t="s" s="2">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -57332,13 +57341,13 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -57437,13 +57446,13 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -57469,13 +57478,13 @@
         <v>97</v>
       </c>
       <c r="M506" t="s" s="2">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="N506" t="s" s="2">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="O506" t="s" s="2">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P506" s="2"/>
       <c r="Q506" t="s" s="2">
@@ -57525,7 +57534,7 @@
         <v>76</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>77</v>
@@ -57537,18 +57546,18 @@
         <v>76</v>
       </c>
       <c r="AK506" t="s" s="2">
-        <v>852</v>
+        <v>855</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -57574,13 +57583,13 @@
         <v>97</v>
       </c>
       <c r="M507" t="s" s="2">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="N507" t="s" s="2">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="O507" t="s" s="2">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="P507" t="s" s="2">
         <v>256</v>
@@ -57632,7 +57641,7 @@
         <v>76</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>77</v>
@@ -57644,18 +57653,18 @@
         <v>257</v>
       </c>
       <c r="AK507" t="s" s="2">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -57681,10 +57690,10 @@
         <v>97</v>
       </c>
       <c r="M508" t="s" s="2">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="N508" t="s" s="2">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>261</v>
@@ -57737,7 +57746,7 @@
         <v>76</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>77</v>
@@ -57749,18 +57758,18 @@
         <v>76</v>
       </c>
       <c r="AK508" t="s" s="2">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -57789,10 +57798,10 @@
         <v>263</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="O509" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="P509" s="2"/>
       <c r="Q509" t="s" s="2">
@@ -57842,7 +57851,7 @@
         <v>76</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>83</v>
@@ -57859,13 +57868,13 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -57894,13 +57903,13 @@
         <v>270</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="O510" t="s" s="2">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="P510" t="s" s="2">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="Q510" t="s" s="2">
         <v>76</v>
@@ -57949,7 +57958,7 @@
         <v>76</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>77</v>
@@ -57966,13 +57975,13 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -58001,10 +58010,10 @@
         <v>277</v>
       </c>
       <c r="N511" t="s" s="2">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="O511" t="s" s="2">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="P511" s="2"/>
       <c r="Q511" t="s" s="2">
@@ -58054,7 +58063,7 @@
         <v>76</v>
       </c>
       <c r="AG511" t="s" s="2">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="AH511" t="s" s="2">
         <v>77</v>
@@ -58071,13 +58080,13 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -58106,13 +58115,13 @@
         <v>281</v>
       </c>
       <c r="N512" t="s" s="2">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="O512" t="s" s="2">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="P512" t="s" s="2">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="Q512" t="s" s="2">
         <v>76</v>
@@ -58161,7 +58170,7 @@
         <v>76</v>
       </c>
       <c r="AG512" t="s" s="2">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="AH512" t="s" s="2">
         <v>77</v>
@@ -58173,18 +58182,18 @@
         <v>76</v>
       </c>
       <c r="AK512" t="s" s="2">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -58266,7 +58275,7 @@
         <v>76</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>77</v>
@@ -58283,13 +58292,13 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -58386,13 +58395,13 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -58491,13 +58500,13 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -58596,13 +58605,13 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -58699,13 +58708,13 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -58802,13 +58811,13 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -58907,13 +58916,13 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -59010,13 +59019,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -59117,13 +59126,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -59224,13 +59233,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -59329,13 +59338,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -59432,13 +59441,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -59464,13 +59473,13 @@
         <v>341</v>
       </c>
       <c r="M525" t="s" s="2">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="N525" t="s" s="2">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="O525" t="s" s="2">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="P525" s="2"/>
       <c r="Q525" t="s" s="2">
@@ -59520,7 +59529,7 @@
         <v>76</v>
       </c>
       <c r="AG525" t="s" s="2">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AH525" t="s" s="2">
         <v>77</v>
@@ -59532,18 +59541,18 @@
         <v>76</v>
       </c>
       <c r="AK525" t="s" s="2">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -59572,7 +59581,7 @@
         <v>347</v>
       </c>
       <c r="N526" t="s" s="2">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="O526" t="s" s="2">
         <v>349</v>
@@ -59627,7 +59636,7 @@
         <v>76</v>
       </c>
       <c r="AG526" t="s" s="2">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="AH526" t="s" s="2">
         <v>77</v>
@@ -59644,13 +59653,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -59676,13 +59685,13 @@
         <v>213</v>
       </c>
       <c r="M527" t="s" s="2">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="O527" t="s" s="2">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="P527" s="2"/>
       <c r="Q527" t="s" s="2">
@@ -59732,7 +59741,7 @@
         <v>76</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>77</v>
@@ -59749,13 +59758,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -59852,13 +59861,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -59957,13 +59966,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60064,13 +60073,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60167,13 +60176,13 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -60272,13 +60281,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60379,13 +60388,13 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -60484,13 +60493,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -60589,13 +60598,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -60694,13 +60703,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -60801,13 +60810,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -60908,13 +60917,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -60940,13 +60949,13 @@
         <v>341</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="O539" t="s" s="2">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -60996,7 +61005,7 @@
         <v>76</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>77</v>
@@ -61013,13 +61022,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61048,13 +61057,13 @@
         <v>412</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="O540" t="s" s="2">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="P540" t="s" s="2">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="Q540" t="s" s="2">
         <v>76</v>
@@ -61103,7 +61112,7 @@
         <v>76</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>77</v>
@@ -61115,18 +61124,18 @@
         <v>76</v>
       </c>
       <c r="AK540" t="s" s="2">
-        <v>915</v>
+        <v>918</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61152,13 +61161,13 @@
         <v>269</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="O541" t="s" s="2">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61208,7 +61217,7 @@
         <v>76</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>77</v>
@@ -61225,13 +61234,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -61257,13 +61266,13 @@
         <v>512</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="O542" t="s" s="2">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61313,7 +61322,7 @@
         <v>76</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>77</v>
@@ -61330,13 +61339,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61362,13 +61371,13 @@
         <v>159</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="O543" t="s" s="2">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="P543" s="2"/>
       <c r="Q543" t="s" s="2">
@@ -61397,10 +61406,10 @@
         <v>208</v>
       </c>
       <c r="Z543" t="s" s="2">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="AA543" t="s" s="2">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="AB543" t="s" s="2">
         <v>76</v>
@@ -61418,7 +61427,7 @@
         <v>76</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>77</v>
@@ -61435,17 +61444,17 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -61467,13 +61476,13 @@
         <v>269</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="O544" t="s" s="2">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -61523,7 +61532,7 @@
         <v>76</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>77</v>
@@ -61540,13 +61549,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -61572,13 +61581,13 @@
         <v>269</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="O545" t="s" s="2">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -61628,7 +61637,7 @@
         <v>76</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>77</v>
@@ -61645,13 +61654,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -61677,10 +61686,10 @@
         <v>159</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
@@ -61710,28 +61719,28 @@
         <v>208</v>
       </c>
       <c r="Z546" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="AA546" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="AB546" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC546" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD546" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE546" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF546" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG546" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="AA546" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="AB546" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC546" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD546" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE546" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF546" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG546" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>83</v>
@@ -61748,13 +61757,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -61777,16 +61786,16 @@
         <v>84</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="O547" t="s" s="2">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -61836,7 +61845,7 @@
         <v>76</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>77</v>
@@ -61853,13 +61862,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -61882,16 +61891,16 @@
         <v>84</v>
       </c>
       <c r="L548" t="s" s="2">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="O548" t="s" s="2">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -61941,7 +61950,7 @@
         <v>76</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>77</v>
@@ -61958,13 +61967,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -61990,13 +61999,13 @@
         <v>419</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="O549" t="s" s="2">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="P549" s="2"/>
       <c r="Q549" t="s" s="2">
@@ -62046,7 +62055,7 @@
         <v>76</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>77</v>
@@ -62063,13 +62072,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62166,13 +62175,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62271,13 +62280,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62378,13 +62387,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62410,10 +62419,10 @@
         <v>159</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -62464,7 +62473,7 @@
         <v>76</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>83</v>
@@ -62481,13 +62490,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -62513,10 +62522,10 @@
         <v>97</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="O554" s="2"/>
       <c r="P554" s="2"/>
@@ -62567,7 +62576,7 @@
         <v>76</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>77</v>
@@ -62584,13 +62593,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -62619,7 +62628,7 @@
         <v>502</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="O555" s="2"/>
       <c r="P555" s="2"/>
@@ -62670,7 +62679,7 @@
         <v>76</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>83</v>
@@ -62687,13 +62696,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -62719,10 +62728,10 @@
         <v>97</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -62773,7 +62782,7 @@
         <v>76</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>83</v>
@@ -62790,13 +62799,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -62822,10 +62831,10 @@
         <v>419</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="O557" s="2"/>
       <c r="P557" s="2"/>
@@ -62876,7 +62885,7 @@
         <v>76</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>77</v>
@@ -62893,13 +62902,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -62996,13 +63005,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63101,13 +63110,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63208,13 +63217,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63240,10 +63249,10 @@
         <v>159</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="O561" s="2"/>
       <c r="P561" s="2"/>
@@ -63294,7 +63303,7 @@
         <v>76</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>83</v>
@@ -63311,13 +63320,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63343,10 +63352,10 @@
         <v>124</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="O562" s="2"/>
       <c r="P562" s="2"/>
@@ -63397,7 +63406,7 @@
         <v>76</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>77</v>
@@ -63414,13 +63423,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -63446,10 +63455,10 @@
         <v>97</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" s="2"/>
@@ -63500,7 +63509,7 @@
         <v>76</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>77</v>
@@ -63517,13 +63526,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -63549,10 +63558,10 @@
         <v>159</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" s="2"/>
@@ -63582,28 +63591,28 @@
         <v>208</v>
       </c>
       <c r="Z564" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="AA564" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="AB564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF564" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG564" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="AA564" t="s" s="2">
-        <v>991</v>
-      </c>
-      <c r="AB564" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC564" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD564" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE564" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF564" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG564" t="s" s="2">
-        <v>987</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>83</v>
@@ -63620,13 +63629,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -63652,13 +63661,13 @@
         <v>419</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="O565" t="s" s="2">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="P565" s="2"/>
       <c r="Q565" t="s" s="2">
@@ -63708,7 +63717,7 @@
         <v>76</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>77</v>
@@ -63725,13 +63734,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -63828,13 +63837,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -63933,13 +63942,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64040,13 +64049,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64072,10 +64081,10 @@
         <v>159</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" s="2"/>
@@ -64126,7 +64135,7 @@
         <v>76</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>83</v>
@@ -64143,13 +64152,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64175,10 +64184,10 @@
         <v>97</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" s="2"/>
@@ -64229,7 +64238,7 @@
         <v>76</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>77</v>
@@ -64246,13 +64255,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64278,10 +64287,10 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -64332,7 +64341,7 @@
         <v>76</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>77</v>
@@ -64349,13 +64358,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64381,16 +64390,16 @@
         <v>419</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>474</v>
       </c>
       <c r="P572" t="s" s="2">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="Q572" t="s" s="2">
         <v>76</v>
@@ -64439,7 +64448,7 @@
         <v>76</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>77</v>
@@ -64456,13 +64465,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -64559,13 +64568,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -64664,13 +64673,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -64771,13 +64780,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -64859,7 +64868,7 @@
         <v>76</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>77</v>
@@ -64876,13 +64885,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -64908,10 +64917,10 @@
         <v>137</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="O577" t="s" s="2">
         <v>485</v>
@@ -64964,7 +64973,7 @@
         <v>76</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>77</v>
@@ -64981,13 +64990,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65067,7 +65076,7 @@
         <v>76</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>83</v>
@@ -65084,13 +65093,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65116,10 +65125,10 @@
         <v>419</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="O579" s="2"/>
       <c r="P579" s="2"/>
@@ -65170,7 +65179,7 @@
         <v>76</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>77</v>
@@ -65187,13 +65196,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65290,13 +65299,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65395,13 +65404,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -65502,13 +65511,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -65534,10 +65543,10 @@
         <v>159</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -65588,7 +65597,7 @@
         <v>76</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>83</v>
@@ -65605,13 +65614,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -65634,13 +65643,13 @@
         <v>76</v>
       </c>
       <c r="L584" t="s" s="2">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="N584" t="s" s="2">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="O584" s="2"/>
       <c r="P584" s="2"/>
@@ -65691,7 +65700,7 @@
         <v>76</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>83</v>
@@ -65708,13 +65717,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -65740,10 +65749,10 @@
         <v>79</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -65794,7 +65803,7 @@
         <v>76</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>77</v>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19540" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19540" uniqueCount="1056">
   <si>
     <t>Property</t>
   </si>
@@ -2468,18 +2468,12 @@
 hl7au-sdf-base-02:The url starts with 'http://hl7.org.au/fhir/StructureDefinition/' {startsWith('http://hl7.org.au/fhir/StructureDefinition/')}</t>
   </si>
   <si>
-    <t>Generated from ImplementationGuide value</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 hl7au-sdf-base-07:The name value contains no spaces {contains(' ').not()}</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 hl7au-sdf-base-08:The title value must contain one or more non-leading or non-trailing single spaces {matches('^([a-zA-Z0-9]+ )*[a-zA-Z0-9]+$')}</t>
-  </si>
-  <si>
-    <t>Generated from ImplementationGuide.date</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -3941,7 +3935,7 @@
         <v>2</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="67">
@@ -3949,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="68">
@@ -3965,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70">
@@ -3973,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="71">
@@ -4027,7 +4021,7 @@
         <v>23</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="78">
@@ -4065,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="83">
@@ -4073,7 +4067,7 @@
         <v>34</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="84">
@@ -4105,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="88">
@@ -4113,7 +4107,7 @@
         <v>4</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="89">
@@ -4129,7 +4123,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="91">
@@ -4137,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="92">
@@ -4191,7 +4185,7 @@
         <v>23</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="99">
@@ -4269,7 +4263,7 @@
         <v>2</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="109">
@@ -4277,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="110">
@@ -4293,7 +4287,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="112">
@@ -4301,7 +4295,7 @@
         <v>10</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="113">
@@ -4355,7 +4349,7 @@
         <v>23</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="120">
@@ -4393,7 +4387,7 @@
         <v>32</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="125">
@@ -4401,7 +4395,7 @@
         <v>34</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="126">
@@ -24657,7 +24651,7 @@
         <v>97</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>790</v>
+        <v>628</v>
       </c>
       <c r="N193" t="s" s="2">
         <v>629</v>
@@ -24832,7 +24826,7 @@
         <v>257</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="195">
@@ -24937,7 +24931,7 @@
         <v>76</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="196">
@@ -25186,7 +25180,7 @@
         <v>276</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>793</v>
+        <v>277</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>646</v>
@@ -25361,7 +25355,7 @@
         <v>76</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="200">
@@ -25474,10 +25468,10 @@
         <v>773</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25577,10 +25571,10 @@
         <v>773</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25682,10 +25676,10 @@
         <v>773</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25787,10 +25781,10 @@
         <v>773</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25890,10 +25884,10 @@
         <v>773</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25993,10 +25987,10 @@
         <v>773</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26098,10 +26092,10 @@
         <v>773</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26201,10 +26195,10 @@
         <v>773</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26308,10 +26302,10 @@
         <v>773</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
@@ -26415,10 +26409,10 @@
         <v>773</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26520,10 +26514,10 @@
         <v>773</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27142,7 +27136,7 @@
         <v>76</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="217">
@@ -30485,13 +30479,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
@@ -30517,10 +30511,10 @@
         <v>79</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
@@ -30571,7 +30565,7 @@
         <v>76</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>77</v>
@@ -30588,13 +30582,13 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
@@ -30693,13 +30687,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
@@ -30796,13 +30790,13 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -30899,13 +30893,13 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31004,13 +30998,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31109,13 +31103,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31214,13 +31208,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31319,13 +31313,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31365,7 +31359,7 @@
       </c>
       <c r="R257" s="2"/>
       <c r="S257" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="T257" t="s" s="2">
         <v>76</v>
@@ -31424,13 +31418,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -31529,13 +31523,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -31634,13 +31628,13 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
@@ -31739,13 +31733,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -31844,13 +31838,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -31949,13 +31943,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32054,13 +32048,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32159,13 +32153,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32266,13 +32260,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32298,16 +32292,16 @@
         <v>124</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N266" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>192</v>
       </c>
       <c r="P266" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q266" t="s" s="2">
         <v>76</v>
@@ -32356,7 +32350,7 @@
         <v>76</v>
       </c>
       <c r="AG266" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AH266" t="s" s="2">
         <v>77</v>
@@ -32368,18 +32362,18 @@
         <v>76</v>
       </c>
       <c r="AK266" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32405,13 +32399,13 @@
         <v>196</v>
       </c>
       <c r="M267" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N267" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="O267" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="N267" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="O267" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="P267" t="s" s="2">
         <v>200</v>
@@ -32463,7 +32457,7 @@
         <v>76</v>
       </c>
       <c r="AG267" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AH267" t="s" s="2">
         <v>77</v>
@@ -32480,13 +32474,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -32583,13 +32577,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -32688,13 +32682,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -32795,13 +32789,13 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
@@ -32902,13 +32896,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33009,13 +33003,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33109,18 +33103,18 @@
         <v>76</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33217,13 +33211,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33322,13 +33316,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33354,13 +33348,13 @@
         <v>97</v>
       </c>
       <c r="M276" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N276" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="O276" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N276" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O276" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P276" s="2"/>
       <c r="Q276" t="s" s="2">
@@ -33410,7 +33404,7 @@
         <v>76</v>
       </c>
       <c r="AG276" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AH276" t="s" s="2">
         <v>77</v>
@@ -33422,18 +33416,18 @@
         <v>76</v>
       </c>
       <c r="AK276" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -33459,13 +33453,13 @@
         <v>97</v>
       </c>
       <c r="M277" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N277" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="O277" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="N277" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O277" t="s" s="2">
-        <v>859</v>
       </c>
       <c r="P277" t="s" s="2">
         <v>256</v>
@@ -33517,7 +33511,7 @@
         <v>76</v>
       </c>
       <c r="AG277" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AH277" t="s" s="2">
         <v>77</v>
@@ -33534,13 +33528,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -33566,10 +33560,10 @@
         <v>97</v>
       </c>
       <c r="M278" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N278" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="O278" t="s" s="2">
         <v>261</v>
@@ -33622,7 +33616,7 @@
         <v>76</v>
       </c>
       <c r="AG278" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AH278" t="s" s="2">
         <v>77</v>
@@ -33639,13 +33633,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -33674,10 +33668,10 @@
         <v>263</v>
       </c>
       <c r="N279" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="O279" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P279" s="2"/>
       <c r="Q279" t="s" s="2">
@@ -33727,7 +33721,7 @@
         <v>76</v>
       </c>
       <c r="AG279" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AH279" t="s" s="2">
         <v>83</v>
@@ -33744,13 +33738,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" t="s" s="2">
@@ -33779,13 +33773,13 @@
         <v>270</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="O280" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P280" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q280" t="s" s="2">
         <v>76</v>
@@ -33834,7 +33828,7 @@
         <v>76</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>77</v>
@@ -33851,13 +33845,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -33886,10 +33880,10 @@
         <v>277</v>
       </c>
       <c r="N281" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O281" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P281" s="2"/>
       <c r="Q281" t="s" s="2">
@@ -33939,7 +33933,7 @@
         <v>76</v>
       </c>
       <c r="AG281" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AH281" t="s" s="2">
         <v>77</v>
@@ -33956,13 +33950,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -33991,13 +33985,13 @@
         <v>281</v>
       </c>
       <c r="N282" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="O282" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="P282" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="O282" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="P282" t="s" s="2">
-        <v>875</v>
       </c>
       <c r="Q282" t="s" s="2">
         <v>76</v>
@@ -34046,7 +34040,7 @@
         <v>76</v>
       </c>
       <c r="AG282" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AH282" t="s" s="2">
         <v>77</v>
@@ -34058,18 +34052,18 @@
         <v>76</v>
       </c>
       <c r="AK282" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34151,7 +34145,7 @@
         <v>76</v>
       </c>
       <c r="AG283" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AH283" t="s" s="2">
         <v>77</v>
@@ -34168,13 +34162,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34271,13 +34265,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34376,13 +34370,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34481,13 +34475,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -34584,13 +34578,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -34687,13 +34681,13 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" t="s" s="2">
@@ -34792,13 +34786,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -34895,13 +34889,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35002,13 +34996,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35109,13 +35103,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35214,13 +35208,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35317,13 +35311,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35349,13 +35343,13 @@
         <v>341</v>
       </c>
       <c r="M295" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="N295" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="O295" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="O295" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="P295" s="2"/>
       <c r="Q295" t="s" s="2">
@@ -35405,7 +35399,7 @@
         <v>76</v>
       </c>
       <c r="AG295" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AH295" t="s" s="2">
         <v>77</v>
@@ -35422,13 +35416,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -35457,7 +35451,7 @@
         <v>347</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>349</v>
@@ -35512,7 +35506,7 @@
         <v>76</v>
       </c>
       <c r="AG296" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AH296" t="s" s="2">
         <v>77</v>
@@ -35529,13 +35523,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -35561,13 +35555,13 @@
         <v>213</v>
       </c>
       <c r="M297" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O297" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N297" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O297" t="s" s="2">
-        <v>898</v>
       </c>
       <c r="P297" s="2"/>
       <c r="Q297" t="s" s="2">
@@ -35617,7 +35611,7 @@
         <v>76</v>
       </c>
       <c r="AG297" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AH297" t="s" s="2">
         <v>77</v>
@@ -35634,13 +35628,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -35737,13 +35731,13 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
@@ -35842,13 +35836,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C300" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" t="s" s="2">
@@ -35949,13 +35943,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36052,13 +36046,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36157,13 +36151,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36264,13 +36258,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36369,13 +36363,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -36474,13 +36468,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -36579,13 +36573,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -36686,13 +36680,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -36793,13 +36787,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -36825,13 +36819,13 @@
         <v>341</v>
       </c>
       <c r="M309" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N309" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O309" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="O309" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
@@ -36881,7 +36875,7 @@
         <v>76</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>77</v>
@@ -36898,13 +36892,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C310" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -36933,13 +36927,13 @@
         <v>412</v>
       </c>
       <c r="N310" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="P310" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="P310" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>76</v>
@@ -36988,7 +36982,7 @@
         <v>76</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>77</v>
@@ -37000,18 +36994,18 @@
         <v>76</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37037,13 +37031,13 @@
         <v>269</v>
       </c>
       <c r="M311" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="N311" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="O311" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
@@ -37093,7 +37087,7 @@
         <v>76</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>77</v>
@@ -37110,13 +37104,13 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
@@ -37142,13 +37136,13 @@
         <v>512</v>
       </c>
       <c r="M312" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N312" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O312" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="P312" s="2"/>
       <c r="Q312" t="s" s="2">
@@ -37198,7 +37192,7 @@
         <v>76</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>77</v>
@@ -37215,13 +37209,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37247,13 +37241,13 @@
         <v>159</v>
       </c>
       <c r="M313" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="N313" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="O313" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="O313" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="P313" s="2"/>
       <c r="Q313" t="s" s="2">
@@ -37282,10 +37276,10 @@
         <v>208</v>
       </c>
       <c r="Z313" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AA313" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AB313" t="s" s="2">
         <v>76</v>
@@ -37303,7 +37297,7 @@
         <v>76</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>77</v>
@@ -37320,17 +37314,17 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" t="s" s="2">
@@ -37352,13 +37346,13 @@
         <v>269</v>
       </c>
       <c r="M314" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N314" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="O314" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="N314" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="O314" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
@@ -37408,7 +37402,7 @@
         <v>76</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>77</v>
@@ -37425,13 +37419,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -37457,13 +37451,13 @@
         <v>269</v>
       </c>
       <c r="M315" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="N315" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="O315" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
@@ -37513,7 +37507,7 @@
         <v>76</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>77</v>
@@ -37530,13 +37524,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -37562,10 +37556,10 @@
         <v>159</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="O316" s="2"/>
       <c r="P316" s="2"/>
@@ -37595,10 +37589,10 @@
         <v>208</v>
       </c>
       <c r="Z316" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AA316" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AB316" t="s" s="2">
         <v>76</v>
@@ -37616,7 +37610,7 @@
         <v>76</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AH316" t="s" s="2">
         <v>83</v>
@@ -37633,13 +37627,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -37662,16 +37656,16 @@
         <v>84</v>
       </c>
       <c r="L317" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="M317" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="N317" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="M317" t="s" s="2">
+      <c r="O317" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O317" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="P317" s="2"/>
       <c r="Q317" t="s" s="2">
@@ -37721,7 +37715,7 @@
         <v>76</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AH317" t="s" s="2">
         <v>77</v>
@@ -37738,13 +37732,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -37767,16 +37761,16 @@
         <v>84</v>
       </c>
       <c r="L318" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="M318" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N318" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="M318" t="s" s="2">
+      <c r="O318" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="O318" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="P318" s="2"/>
       <c r="Q318" t="s" s="2">
@@ -37826,7 +37820,7 @@
         <v>76</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>77</v>
@@ -37843,13 +37837,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -37875,13 +37869,13 @@
         <v>419</v>
       </c>
       <c r="M319" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="N319" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="O319" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
@@ -37931,7 +37925,7 @@
         <v>76</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>77</v>
@@ -37948,13 +37942,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38051,13 +38045,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38156,13 +38150,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38263,13 +38257,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38295,10 +38289,10 @@
         <v>159</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="O323" s="2"/>
       <c r="P323" s="2"/>
@@ -38349,7 +38343,7 @@
         <v>76</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH323" t="s" s="2">
         <v>83</v>
@@ -38366,13 +38360,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38398,10 +38392,10 @@
         <v>97</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
@@ -38452,7 +38446,7 @@
         <v>76</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>77</v>
@@ -38469,13 +38463,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -38504,7 +38498,7 @@
         <v>502</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="O325" s="2"/>
       <c r="P325" s="2"/>
@@ -38555,7 +38549,7 @@
         <v>76</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>83</v>
@@ -38572,13 +38566,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -38604,10 +38598,10 @@
         <v>97</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O326" s="2"/>
       <c r="P326" s="2"/>
@@ -38658,7 +38652,7 @@
         <v>76</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>83</v>
@@ -38675,13 +38669,13 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -38707,10 +38701,10 @@
         <v>419</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="O327" s="2"/>
       <c r="P327" s="2"/>
@@ -38761,7 +38755,7 @@
         <v>76</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>77</v>
@@ -38778,13 +38772,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -38881,13 +38875,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -38986,13 +38980,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39093,13 +39087,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39125,10 +39119,10 @@
         <v>159</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="O331" s="2"/>
       <c r="P331" s="2"/>
@@ -39179,7 +39173,7 @@
         <v>76</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>83</v>
@@ -39196,13 +39190,13 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
@@ -39228,10 +39222,10 @@
         <v>124</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O332" s="2"/>
       <c r="P332" s="2"/>
@@ -39282,7 +39276,7 @@
         <v>76</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>77</v>
@@ -39299,13 +39293,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39331,10 +39325,10 @@
         <v>97</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O333" s="2"/>
       <c r="P333" s="2"/>
@@ -39385,7 +39379,7 @@
         <v>76</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>77</v>
@@ -39402,13 +39396,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39434,10 +39428,10 @@
         <v>159</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O334" s="2"/>
       <c r="P334" s="2"/>
@@ -39467,10 +39461,10 @@
         <v>208</v>
       </c>
       <c r="Z334" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AA334" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AB334" t="s" s="2">
         <v>76</v>
@@ -39488,7 +39482,7 @@
         <v>76</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>83</v>
@@ -39505,13 +39499,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -39537,13 +39531,13 @@
         <v>419</v>
       </c>
       <c r="M335" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="N335" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="O335" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O335" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="P335" s="2"/>
       <c r="Q335" t="s" s="2">
@@ -39593,7 +39587,7 @@
         <v>76</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>77</v>
@@ -39610,13 +39604,13 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -39713,13 +39707,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -39818,13 +39812,13 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
@@ -39925,13 +39919,13 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -39957,10 +39951,10 @@
         <v>159</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O339" s="2"/>
       <c r="P339" s="2"/>
@@ -40011,7 +40005,7 @@
         <v>76</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>83</v>
@@ -40028,13 +40022,13 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40060,10 +40054,10 @@
         <v>97</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="O340" s="2"/>
       <c r="P340" s="2"/>
@@ -40114,7 +40108,7 @@
         <v>76</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>77</v>
@@ -40131,13 +40125,13 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
@@ -40163,10 +40157,10 @@
         <v>97</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O341" s="2"/>
       <c r="P341" s="2"/>
@@ -40217,7 +40211,7 @@
         <v>76</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>77</v>
@@ -40234,13 +40228,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -40266,16 +40260,16 @@
         <v>419</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>474</v>
       </c>
       <c r="P342" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="Q342" t="s" s="2">
         <v>76</v>
@@ -40324,7 +40318,7 @@
         <v>76</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>77</v>
@@ -40341,13 +40335,13 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
@@ -40444,13 +40438,13 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -40549,13 +40543,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" t="s" s="2">
@@ -40656,13 +40650,13 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B346" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" t="s" s="2">
@@ -40744,7 +40738,7 @@
         <v>76</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>77</v>
@@ -40761,13 +40755,13 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
@@ -40793,10 +40787,10 @@
         <v>137</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>485</v>
@@ -40849,7 +40843,7 @@
         <v>76</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>77</v>
@@ -40866,13 +40860,13 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -40952,7 +40946,7 @@
         <v>76</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>83</v>
@@ -40969,13 +40963,13 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41001,10 +40995,10 @@
         <v>419</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="O349" s="2"/>
       <c r="P349" s="2"/>
@@ -41055,7 +41049,7 @@
         <v>76</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>77</v>
@@ -41072,13 +41066,13 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
@@ -41175,13 +41169,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -41280,13 +41274,13 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
@@ -41387,13 +41381,13 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -41419,10 +41413,10 @@
         <v>159</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O353" s="2"/>
       <c r="P353" s="2"/>
@@ -41473,7 +41467,7 @@
         <v>76</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>83</v>
@@ -41490,13 +41484,13 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" t="s" s="2">
@@ -41519,13 +41513,13 @@
         <v>76</v>
       </c>
       <c r="L354" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="M354" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="N354" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="M354" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>1035</v>
       </c>
       <c r="O354" s="2"/>
       <c r="P354" s="2"/>
@@ -41576,7 +41570,7 @@
         <v>76</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>83</v>
@@ -41593,13 +41587,13 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B355" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C355" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" t="s" s="2">
@@ -41625,10 +41619,10 @@
         <v>79</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O355" s="2"/>
       <c r="P355" s="2"/>
@@ -41679,7 +41673,7 @@
         <v>76</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>77</v>
@@ -41696,7 +41690,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>33</v>
@@ -41799,7 +41793,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>82</v>
@@ -41899,12 +41893,12 @@
         <v>76</v>
       </c>
       <c r="AK357" t="s" s="2">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>90</v>
@@ -42007,7 +42001,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>96</v>
@@ -42110,7 +42104,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>101</v>
@@ -42215,7 +42209,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>112</v>
@@ -42320,7 +42314,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>117</v>
@@ -42425,7 +42419,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>123</v>
@@ -42530,7 +42524,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>129</v>
@@ -42635,7 +42629,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>136</v>
@@ -42740,7 +42734,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>145</v>
@@ -42845,7 +42839,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>153</v>
@@ -42950,7 +42944,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>158</v>
@@ -43055,7 +43049,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>167</v>
@@ -43160,7 +43154,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>174</v>
@@ -43265,7 +43259,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>181</v>
@@ -43370,7 +43364,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -43477,7 +43471,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>189</v>
@@ -43579,12 +43573,12 @@
         <v>76</v>
       </c>
       <c r="AK373" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>195</v>
@@ -43691,7 +43685,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>201</v>
@@ -43794,7 +43788,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>202</v>
@@ -43899,7 +43893,7 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>203</v>
@@ -44006,7 +44000,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>212</v>
@@ -44113,7 +44107,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>221</v>
@@ -44220,7 +44214,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>229</v>
@@ -44325,7 +44319,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>236</v>
@@ -44428,7 +44422,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>241</v>
@@ -44533,7 +44527,7 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>247</v>
@@ -44638,7 +44632,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>252</v>
@@ -44740,12 +44734,12 @@
         <v>257</v>
       </c>
       <c r="AK384" t="s" s="2">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>258</v>
@@ -44845,12 +44839,12 @@
         <v>76</v>
       </c>
       <c r="AK385" t="s" s="2">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>262</v>
@@ -44955,7 +44949,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>268</v>
@@ -45062,7 +45056,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>274</v>
@@ -45167,7 +45161,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>280</v>
@@ -45274,7 +45268,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>286</v>
@@ -45379,7 +45373,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>291</v>
@@ -45482,7 +45476,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>292</v>
@@ -45587,7 +45581,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>293</v>
@@ -45692,7 +45686,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>298</v>
@@ -45795,7 +45789,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>303</v>
@@ -45898,7 +45892,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>304</v>
@@ -46003,7 +45997,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>305</v>
@@ -46106,7 +46100,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>313</v>
@@ -46213,7 +46207,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>320</v>
@@ -46320,7 +46314,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>329</v>
@@ -46425,7 +46419,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>335</v>
@@ -46528,7 +46522,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>339</v>
@@ -46628,12 +46622,12 @@
         <v>76</v>
       </c>
       <c r="AK402" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>345</v>
@@ -46740,7 +46734,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>351</v>
@@ -46845,7 +46839,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>357</v>
@@ -46948,7 +46942,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>358</v>
@@ -47053,7 +47047,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>359</v>
@@ -47160,7 +47154,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>365</v>
@@ -47263,7 +47257,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>366</v>
@@ -47368,7 +47362,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>367</v>
@@ -47475,7 +47469,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>374</v>
@@ -47580,7 +47574,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>379</v>
@@ -47685,7 +47679,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>385</v>
@@ -47790,7 +47784,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>390</v>
@@ -47897,7 +47891,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>396</v>
@@ -48004,7 +47998,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>402</v>
@@ -48109,7 +48103,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>406</v>
@@ -48214,7 +48208,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>410</v>
@@ -48321,7 +48315,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>417</v>
@@ -48424,7 +48418,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>422</v>
@@ -48527,7 +48521,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>423</v>
@@ -48632,7 +48626,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>424</v>
@@ -48739,7 +48733,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>429</v>
@@ -48844,7 +48838,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>434</v>
@@ -48949,7 +48943,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>438</v>
@@ -49054,7 +49048,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>443</v>
@@ -49157,7 +49151,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>444</v>
@@ -49262,7 +49256,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>445</v>
@@ -49369,7 +49363,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>446</v>
@@ -49474,7 +49468,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>451</v>
@@ -49579,7 +49573,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>455</v>
@@ -49684,7 +49678,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>460</v>
@@ -49787,7 +49781,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>461</v>
@@ -49892,7 +49886,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>462</v>
@@ -49999,7 +49993,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>463</v>
@@ -50104,7 +50098,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>467</v>
@@ -50209,7 +50203,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>471</v>
@@ -50314,7 +50308,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>475</v>
@@ -50417,7 +50411,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>476</v>
@@ -50522,7 +50516,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>477</v>
@@ -50629,7 +50623,7 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>478</v>
@@ -50734,7 +50728,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>482</v>
@@ -50839,7 +50833,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>488</v>
@@ -50942,7 +50936,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>491</v>
@@ -51047,7 +51041,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>495</v>
@@ -51150,7 +51144,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>496</v>
@@ -51255,7 +51249,7 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>497</v>
@@ -51362,7 +51356,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>498</v>
@@ -51465,7 +51459,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>501</v>
@@ -51570,7 +51564,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>507</v>
@@ -51675,7 +51669,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>511</v>
@@ -51780,7 +51774,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>517</v>
@@ -51885,7 +51879,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>522</v>
@@ -51990,7 +51984,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>526</v>
@@ -52093,7 +52087,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>527</v>
@@ -52198,7 +52192,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>528</v>
@@ -52305,7 +52299,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>529</v>
@@ -52410,7 +52404,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>533</v>
@@ -52515,7 +52509,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>537</v>
@@ -52620,7 +52614,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>542</v>
@@ -52727,7 +52721,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>547</v>
@@ -52832,7 +52826,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>551</v>
@@ -52935,7 +52929,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>552</v>
@@ -53040,7 +53034,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>553</v>
@@ -53147,7 +53141,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>554</v>
@@ -53252,7 +53246,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>558</v>
@@ -53355,7 +53349,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>562</v>
@@ -53458,7 +53452,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>566</v>
@@ -53561,7 +53555,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>567</v>
@@ -53666,7 +53660,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>568</v>
@@ -53773,7 +53767,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>569</v>
@@ -53876,7 +53870,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>572</v>
@@ -53983,7 +53977,7 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B473" t="s" s="2">
         <v>577</v>
@@ -54088,7 +54082,7 @@
     </row>
     <row r="474">
       <c r="A474" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B474" t="s" s="2">
         <v>581</v>
@@ -54193,7 +54187,7 @@
     </row>
     <row r="475">
       <c r="A475" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B475" t="s" s="2">
         <v>585</v>
@@ -54296,7 +54290,7 @@
     </row>
     <row r="476">
       <c r="A476" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B476" t="s" s="2">
         <v>589</v>
@@ -54399,7 +54393,7 @@
     </row>
     <row r="477">
       <c r="A477" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B477" t="s" s="2">
         <v>592</v>
@@ -54504,7 +54498,7 @@
     </row>
     <row r="478">
       <c r="A478" t="s" s="2">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B478" t="s" s="2">
         <v>596</v>
@@ -54609,13 +54603,13 @@
     </row>
     <row r="479">
       <c r="A479" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" t="s" s="2">
@@ -54641,10 +54635,10 @@
         <v>79</v>
       </c>
       <c r="M479" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N479" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="O479" s="2"/>
       <c r="P479" s="2"/>
@@ -54695,7 +54689,7 @@
         <v>76</v>
       </c>
       <c r="AG479" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="AH479" t="s" s="2">
         <v>77</v>
@@ -54712,13 +54706,13 @@
     </row>
     <row r="480">
       <c r="A480" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C480" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" t="s" s="2">
@@ -54812,18 +54806,18 @@
         <v>76</v>
       </c>
       <c r="AK480" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C481" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" t="s" s="2">
@@ -54920,13 +54914,13 @@
     </row>
     <row r="482">
       <c r="A482" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C482" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" t="s" s="2">
@@ -55023,13 +55017,13 @@
     </row>
     <row r="483">
       <c r="A483" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C483" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" t="s" s="2">
@@ -55128,13 +55122,13 @@
     </row>
     <row r="484">
       <c r="A484" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C484" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" t="s" s="2">
@@ -55233,13 +55227,13 @@
     </row>
     <row r="485">
       <c r="A485" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C485" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" t="s" s="2">
@@ -55338,13 +55332,13 @@
     </row>
     <row r="486">
       <c r="A486" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C486" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" t="s" s="2">
@@ -55443,13 +55437,13 @@
     </row>
     <row r="487">
       <c r="A487" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C487" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" t="s" s="2">
@@ -55489,7 +55483,7 @@
       </c>
       <c r="R487" s="2"/>
       <c r="S487" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="T487" t="s" s="2">
         <v>76</v>
@@ -55548,13 +55542,13 @@
     </row>
     <row r="488">
       <c r="A488" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C488" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" t="s" s="2">
@@ -55653,13 +55647,13 @@
     </row>
     <row r="489">
       <c r="A489" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C489" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" t="s" s="2">
@@ -55758,13 +55752,13 @@
     </row>
     <row r="490">
       <c r="A490" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C490" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" t="s" s="2">
@@ -55863,13 +55857,13 @@
     </row>
     <row r="491">
       <c r="A491" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C491" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" t="s" s="2">
@@ -55968,13 +55962,13 @@
     </row>
     <row r="492">
       <c r="A492" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C492" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" t="s" s="2">
@@ -56073,13 +56067,13 @@
     </row>
     <row r="493">
       <c r="A493" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C493" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" t="s" s="2">
@@ -56178,13 +56172,13 @@
     </row>
     <row r="494">
       <c r="A494" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C494" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" t="s" s="2">
@@ -56283,13 +56277,13 @@
     </row>
     <row r="495">
       <c r="A495" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C495" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" t="s" s="2">
@@ -56390,13 +56384,13 @@
     </row>
     <row r="496">
       <c r="A496" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C496" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" t="s" s="2">
@@ -56422,16 +56416,16 @@
         <v>124</v>
       </c>
       <c r="M496" t="s" s="2">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="N496" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="O496" t="s" s="2">
         <v>192</v>
       </c>
       <c r="P496" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Q496" t="s" s="2">
         <v>76</v>
@@ -56480,7 +56474,7 @@
         <v>76</v>
       </c>
       <c r="AG496" t="s" s="2">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AH496" t="s" s="2">
         <v>77</v>
@@ -56492,18 +56486,18 @@
         <v>76</v>
       </c>
       <c r="AK496" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C497" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" t="s" s="2">
@@ -56529,13 +56523,13 @@
         <v>196</v>
       </c>
       <c r="M497" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="N497" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="O497" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="N497" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="O497" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="P497" t="s" s="2">
         <v>200</v>
@@ -56587,7 +56581,7 @@
         <v>76</v>
       </c>
       <c r="AG497" t="s" s="2">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="AH497" t="s" s="2">
         <v>77</v>
@@ -56604,13 +56598,13 @@
     </row>
     <row r="498">
       <c r="A498" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C498" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" t="s" s="2">
@@ -56707,13 +56701,13 @@
     </row>
     <row r="499">
       <c r="A499" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C499" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" t="s" s="2">
@@ -56812,13 +56806,13 @@
     </row>
     <row r="500">
       <c r="A500" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C500" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" t="s" s="2">
@@ -56919,13 +56913,13 @@
     </row>
     <row r="501">
       <c r="A501" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C501" t="s" s="2">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" t="s" s="2">
@@ -57026,13 +57020,13 @@
     </row>
     <row r="502">
       <c r="A502" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C502" t="s" s="2">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" t="s" s="2">
@@ -57133,13 +57127,13 @@
     </row>
     <row r="503">
       <c r="A503" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C503" t="s" s="2">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" t="s" s="2">
@@ -57233,18 +57227,18 @@
         <v>76</v>
       </c>
       <c r="AK503" t="s" s="2">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C504" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" t="s" s="2">
@@ -57341,13 +57335,13 @@
     </row>
     <row r="505">
       <c r="A505" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C505" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" t="s" s="2">
@@ -57446,13 +57440,13 @@
     </row>
     <row r="506">
       <c r="A506" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C506" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" t="s" s="2">
@@ -57478,13 +57472,13 @@
         <v>97</v>
       </c>
       <c r="M506" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N506" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="O506" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N506" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O506" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P506" s="2"/>
       <c r="Q506" t="s" s="2">
@@ -57534,7 +57528,7 @@
         <v>76</v>
       </c>
       <c r="AG506" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AH506" t="s" s="2">
         <v>77</v>
@@ -57546,18 +57540,18 @@
         <v>76</v>
       </c>
       <c r="AK506" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C507" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" t="s" s="2">
@@ -57583,13 +57577,13 @@
         <v>97</v>
       </c>
       <c r="M507" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="N507" t="s" s="2">
+        <v>856</v>
+      </c>
+      <c r="O507" t="s" s="2">
         <v>857</v>
-      </c>
-      <c r="N507" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="O507" t="s" s="2">
-        <v>859</v>
       </c>
       <c r="P507" t="s" s="2">
         <v>256</v>
@@ -57641,7 +57635,7 @@
         <v>76</v>
       </c>
       <c r="AG507" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AH507" t="s" s="2">
         <v>77</v>
@@ -57653,18 +57647,18 @@
         <v>257</v>
       </c>
       <c r="AK507" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C508" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" t="s" s="2">
@@ -57690,10 +57684,10 @@
         <v>97</v>
       </c>
       <c r="M508" t="s" s="2">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="N508" t="s" s="2">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="O508" t="s" s="2">
         <v>261</v>
@@ -57746,7 +57740,7 @@
         <v>76</v>
       </c>
       <c r="AG508" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AH508" t="s" s="2">
         <v>77</v>
@@ -57758,18 +57752,18 @@
         <v>76</v>
       </c>
       <c r="AK508" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C509" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" t="s" s="2">
@@ -57798,10 +57792,10 @@
         <v>263</v>
       </c>
       <c r="N509" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="O509" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P509" s="2"/>
       <c r="Q509" t="s" s="2">
@@ -57851,7 +57845,7 @@
         <v>76</v>
       </c>
       <c r="AG509" t="s" s="2">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="AH509" t="s" s="2">
         <v>83</v>
@@ -57868,13 +57862,13 @@
     </row>
     <row r="510">
       <c r="A510" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C510" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" t="s" s="2">
@@ -57903,13 +57897,13 @@
         <v>270</v>
       </c>
       <c r="N510" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="O510" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P510" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q510" t="s" s="2">
         <v>76</v>
@@ -57958,7 +57952,7 @@
         <v>76</v>
       </c>
       <c r="AG510" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AH510" t="s" s="2">
         <v>77</v>
@@ -57975,13 +57969,13 @@
     </row>
     <row r="511">
       <c r="A511" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C511" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" t="s" s="2">
@@ -58010,10 +58004,10 @@
         <v>277</v>
       </c>
       <c r="N511" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O511" t="s" s="2">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P511" s="2"/>
       <c r="Q511" t="s" s="2">
@@ -58063,7 +58057,7 @@
         <v>76</v>
       </c>
       <c r="AG511" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AH511" t="s" s="2">
         <v>77</v>
@@ -58080,13 +58074,13 @@
     </row>
     <row r="512">
       <c r="A512" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C512" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" t="s" s="2">
@@ -58115,13 +58109,13 @@
         <v>281</v>
       </c>
       <c r="N512" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="O512" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="P512" t="s" s="2">
         <v>873</v>
-      </c>
-      <c r="O512" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="P512" t="s" s="2">
-        <v>875</v>
       </c>
       <c r="Q512" t="s" s="2">
         <v>76</v>
@@ -58170,7 +58164,7 @@
         <v>76</v>
       </c>
       <c r="AG512" t="s" s="2">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AH512" t="s" s="2">
         <v>77</v>
@@ -58182,18 +58176,18 @@
         <v>76</v>
       </c>
       <c r="AK512" t="s" s="2">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C513" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" t="s" s="2">
@@ -58275,7 +58269,7 @@
         <v>76</v>
       </c>
       <c r="AG513" t="s" s="2">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AH513" t="s" s="2">
         <v>77</v>
@@ -58292,13 +58286,13 @@
     </row>
     <row r="514">
       <c r="A514" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C514" t="s" s="2">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" t="s" s="2">
@@ -58395,13 +58389,13 @@
     </row>
     <row r="515">
       <c r="A515" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C515" t="s" s="2">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" t="s" s="2">
@@ -58500,13 +58494,13 @@
     </row>
     <row r="516">
       <c r="A516" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C516" t="s" s="2">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" t="s" s="2">
@@ -58605,13 +58599,13 @@
     </row>
     <row r="517">
       <c r="A517" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C517" t="s" s="2">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" t="s" s="2">
@@ -58708,13 +58702,13 @@
     </row>
     <row r="518">
       <c r="A518" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C518" t="s" s="2">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" t="s" s="2">
@@ -58811,13 +58805,13 @@
     </row>
     <row r="519">
       <c r="A519" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -58916,13 +58910,13 @@
     </row>
     <row r="520">
       <c r="A520" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -59019,13 +59013,13 @@
     </row>
     <row r="521">
       <c r="A521" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -59126,13 +59120,13 @@
     </row>
     <row r="522">
       <c r="A522" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -59233,13 +59227,13 @@
     </row>
     <row r="523">
       <c r="A523" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
@@ -59338,13 +59332,13 @@
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C524" t="s" s="2">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" t="s" s="2">
@@ -59441,13 +59435,13 @@
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -59473,13 +59467,13 @@
         <v>341</v>
       </c>
       <c r="M525" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="N525" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="O525" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="N525" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="O525" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="P525" s="2"/>
       <c r="Q525" t="s" s="2">
@@ -59529,7 +59523,7 @@
         <v>76</v>
       </c>
       <c r="AG525" t="s" s="2">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="AH525" t="s" s="2">
         <v>77</v>
@@ -59541,18 +59535,18 @@
         <v>76</v>
       </c>
       <c r="AK525" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -59581,7 +59575,7 @@
         <v>347</v>
       </c>
       <c r="N526" t="s" s="2">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="O526" t="s" s="2">
         <v>349</v>
@@ -59636,7 +59630,7 @@
         <v>76</v>
       </c>
       <c r="AG526" t="s" s="2">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="AH526" t="s" s="2">
         <v>77</v>
@@ -59653,13 +59647,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -59685,13 +59679,13 @@
         <v>213</v>
       </c>
       <c r="M527" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N527" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O527" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="N527" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O527" t="s" s="2">
-        <v>898</v>
       </c>
       <c r="P527" s="2"/>
       <c r="Q527" t="s" s="2">
@@ -59741,7 +59735,7 @@
         <v>76</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>77</v>
@@ -59758,13 +59752,13 @@
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
@@ -59861,13 +59855,13 @@
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -59966,13 +59960,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -60073,13 +60067,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -60176,13 +60170,13 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
@@ -60281,13 +60275,13 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
@@ -60388,13 +60382,13 @@
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
@@ -60493,13 +60487,13 @@
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
@@ -60598,13 +60592,13 @@
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -60703,13 +60697,13 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
@@ -60810,13 +60804,13 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
@@ -60917,13 +60911,13 @@
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
@@ -60949,13 +60943,13 @@
         <v>341</v>
       </c>
       <c r="M539" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N539" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="O539" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="N539" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="O539" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
@@ -61005,7 +60999,7 @@
         <v>76</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>77</v>
@@ -61022,13 +61016,13 @@
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -61057,13 +61051,13 @@
         <v>412</v>
       </c>
       <c r="N540" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="O540" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="P540" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="O540" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="P540" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="Q540" t="s" s="2">
         <v>76</v>
@@ -61112,7 +61106,7 @@
         <v>76</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>77</v>
@@ -61124,18 +61118,18 @@
         <v>76</v>
       </c>
       <c r="AK540" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
@@ -61161,13 +61155,13 @@
         <v>269</v>
       </c>
       <c r="M541" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="N541" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="O541" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N541" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="O541" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="P541" s="2"/>
       <c r="Q541" t="s" s="2">
@@ -61217,7 +61211,7 @@
         <v>76</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="AH541" t="s" s="2">
         <v>77</v>
@@ -61234,13 +61228,13 @@
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
@@ -61266,13 +61260,13 @@
         <v>512</v>
       </c>
       <c r="M542" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="N542" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="O542" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N542" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="O542" t="s" s="2">
-        <v>926</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61322,7 +61316,7 @@
         <v>76</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>77</v>
@@ -61339,13 +61333,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61371,13 +61365,13 @@
         <v>159</v>
       </c>
       <c r="M543" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="N543" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="O543" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="N543" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="O543" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="P543" s="2"/>
       <c r="Q543" t="s" s="2">
@@ -61406,10 +61400,10 @@
         <v>208</v>
       </c>
       <c r="Z543" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="AA543" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="AB543" t="s" s="2">
         <v>76</v>
@@ -61427,7 +61421,7 @@
         <v>76</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>77</v>
@@ -61444,17 +61438,17 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -61476,13 +61470,13 @@
         <v>269</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>933</v>
+      </c>
+      <c r="N544" t="s" s="2">
+        <v>934</v>
+      </c>
+      <c r="O544" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="N544" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -61532,7 +61526,7 @@
         <v>76</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>77</v>
@@ -61549,13 +61543,13 @@
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -61581,13 +61575,13 @@
         <v>269</v>
       </c>
       <c r="M545" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="N545" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="O545" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="N545" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -61637,7 +61631,7 @@
         <v>76</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>77</v>
@@ -61654,13 +61648,13 @@
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -61686,10 +61680,10 @@
         <v>159</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="O546" s="2"/>
       <c r="P546" s="2"/>
@@ -61719,10 +61713,10 @@
         <v>208</v>
       </c>
       <c r="Z546" t="s" s="2">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="AA546" t="s" s="2">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="AB546" t="s" s="2">
         <v>76</v>
@@ -61740,7 +61734,7 @@
         <v>76</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>83</v>
@@ -61757,13 +61751,13 @@
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -61786,16 +61780,16 @@
         <v>84</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>946</v>
+      </c>
+      <c r="M547" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="N547" t="s" s="2">
         <v>948</v>
       </c>
-      <c r="M547" t="s" s="2">
+      <c r="O547" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="N547" t="s" s="2">
-        <v>950</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>951</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -61845,7 +61839,7 @@
         <v>76</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>77</v>
@@ -61862,13 +61856,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -61891,16 +61885,16 @@
         <v>84</v>
       </c>
       <c r="L548" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="M548" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N548" t="s" s="2">
         <v>953</v>
       </c>
-      <c r="M548" t="s" s="2">
+      <c r="O548" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="N548" t="s" s="2">
-        <v>955</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -61950,7 +61944,7 @@
         <v>76</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>77</v>
@@ -61967,13 +61961,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -61999,13 +61993,13 @@
         <v>419</v>
       </c>
       <c r="M549" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="N549" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="O549" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="N549" t="s" s="2">
-        <v>959</v>
-      </c>
-      <c r="O549" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="P549" s="2"/>
       <c r="Q549" t="s" s="2">
@@ -62055,7 +62049,7 @@
         <v>76</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>77</v>
@@ -62072,13 +62066,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62175,13 +62169,13 @@
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62280,13 +62274,13 @@
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62387,13 +62381,13 @@
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62419,10 +62413,10 @@
         <v>159</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -62473,7 +62467,7 @@
         <v>76</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>83</v>
@@ -62490,13 +62484,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -62522,10 +62516,10 @@
         <v>97</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="O554" s="2"/>
       <c r="P554" s="2"/>
@@ -62576,7 +62570,7 @@
         <v>76</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>77</v>
@@ -62593,13 +62587,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -62628,7 +62622,7 @@
         <v>502</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="O555" s="2"/>
       <c r="P555" s="2"/>
@@ -62679,7 +62673,7 @@
         <v>76</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>83</v>
@@ -62696,13 +62690,13 @@
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -62728,10 +62722,10 @@
         <v>97</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -62782,7 +62776,7 @@
         <v>76</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>83</v>
@@ -62799,13 +62793,13 @@
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -62831,10 +62825,10 @@
         <v>419</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="O557" s="2"/>
       <c r="P557" s="2"/>
@@ -62885,7 +62879,7 @@
         <v>76</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="AH557" t="s" s="2">
         <v>77</v>
@@ -62902,13 +62896,13 @@
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63005,13 +62999,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63110,13 +63104,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63217,13 +63211,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63249,10 +63243,10 @@
         <v>159</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="O561" s="2"/>
       <c r="P561" s="2"/>
@@ -63303,7 +63297,7 @@
         <v>76</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>83</v>
@@ -63320,13 +63314,13 @@
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63352,10 +63346,10 @@
         <v>124</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="O562" s="2"/>
       <c r="P562" s="2"/>
@@ -63406,7 +63400,7 @@
         <v>76</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="AH562" t="s" s="2">
         <v>77</v>
@@ -63423,13 +63417,13 @@
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -63455,10 +63449,10 @@
         <v>97</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" s="2"/>
@@ -63509,7 +63503,7 @@
         <v>76</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>77</v>
@@ -63526,13 +63520,13 @@
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -63558,10 +63552,10 @@
         <v>159</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" s="2"/>
@@ -63591,10 +63585,10 @@
         <v>208</v>
       </c>
       <c r="Z564" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AA564" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AB564" t="s" s="2">
         <v>76</v>
@@ -63612,7 +63606,7 @@
         <v>76</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>83</v>
@@ -63629,13 +63623,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -63661,13 +63655,13 @@
         <v>419</v>
       </c>
       <c r="M565" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="N565" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="O565" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N565" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O565" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="P565" s="2"/>
       <c r="Q565" t="s" s="2">
@@ -63717,7 +63711,7 @@
         <v>76</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>77</v>
@@ -63734,13 +63728,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -63837,13 +63831,13 @@
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -63942,13 +63936,13 @@
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64049,13 +64043,13 @@
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64081,10 +64075,10 @@
         <v>159</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" s="2"/>
@@ -64135,7 +64129,7 @@
         <v>76</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>83</v>
@@ -64152,13 +64146,13 @@
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64184,10 +64178,10 @@
         <v>97</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" s="2"/>
@@ -64238,7 +64232,7 @@
         <v>76</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>77</v>
@@ -64255,13 +64249,13 @@
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64287,10 +64281,10 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="O571" s="2"/>
       <c r="P571" s="2"/>
@@ -64341,7 +64335,7 @@
         <v>76</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>77</v>
@@ -64358,13 +64352,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64390,16 +64384,16 @@
         <v>419</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O572" t="s" s="2">
         <v>474</v>
       </c>
       <c r="P572" t="s" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="Q572" t="s" s="2">
         <v>76</v>
@@ -64448,7 +64442,7 @@
         <v>76</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>77</v>
@@ -64465,13 +64459,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -64568,13 +64562,13 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -64673,13 +64667,13 @@
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -64780,13 +64774,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -64868,7 +64862,7 @@
         <v>76</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>77</v>
@@ -64885,13 +64879,13 @@
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -64917,10 +64911,10 @@
         <v>137</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="O577" t="s" s="2">
         <v>485</v>
@@ -64973,7 +64967,7 @@
         <v>76</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>77</v>
@@ -64990,13 +64984,13 @@
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65076,7 +65070,7 @@
         <v>76</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>83</v>
@@ -65093,13 +65087,13 @@
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65125,10 +65119,10 @@
         <v>419</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="O579" s="2"/>
       <c r="P579" s="2"/>
@@ -65179,7 +65173,7 @@
         <v>76</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>77</v>
@@ -65196,13 +65190,13 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65299,13 +65293,13 @@
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65404,13 +65398,13 @@
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -65511,13 +65505,13 @@
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -65543,10 +65537,10 @@
         <v>159</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -65597,7 +65591,7 @@
         <v>76</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>83</v>
@@ -65614,13 +65608,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -65643,13 +65637,13 @@
         <v>76</v>
       </c>
       <c r="L584" t="s" s="2">
+        <v>1031</v>
+      </c>
+      <c r="M584" t="s" s="2">
+        <v>1032</v>
+      </c>
+      <c r="N584" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="M584" t="s" s="2">
-        <v>1034</v>
-      </c>
-      <c r="N584" t="s" s="2">
-        <v>1035</v>
       </c>
       <c r="O584" s="2"/>
       <c r="P584" s="2"/>
@@ -65700,7 +65694,7 @@
         <v>76</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>83</v>
@@ -65717,13 +65711,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -65749,10 +65743,10 @@
         <v>79</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -65803,7 +65797,7 @@
         <v>76</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>77</v>
